--- a/agent/wqfn.xlsx
+++ b/agent/wqfn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MaaY\agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF2798-774A-4350-B850-F24DF0C7EEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3759B6B-A811-4269-8D22-5CFE2B83CC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="284">
   <si>
     <t>题干</t>
   </si>
@@ -1578,6 +1578,66 @@
   </si>
   <si>
     <t>惑主奸臣的媚眼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正宗壶关君手制灵花酥中绝对不应该有的成分是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹砂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵河水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶关君的一片慈爱之心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简雍出身的幽州简氏一族，在分家前的姓氏是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿氏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯氏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹氏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名氏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟繇公务繁多，他在许都的哪些部门担任要职</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚书台、廷尉署、校尉署</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚书台、廷尉署、黄壶署</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚书台、御史台、廷尉署</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>太仆寺、廷尉署、校尉署</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4396,10 +4456,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F8C4F0-4975-442D-B028-81C43A1F99F6}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="N127" sqref="N127"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4795,7 +4855,7 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>17</v>
@@ -5203,7 +5263,7 @@
         <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>17</v>
@@ -6674,6 +6734,66 @@
       </c>
       <c r="G131" s="6" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C132" t="s">
+        <v>270</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" t="s">
+        <v>275</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" t="s">
+        <v>280</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
